--- a/polymer_production_template.xlsx
+++ b/polymer_production_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10003382\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF55DBB-8E18-4A6A-AC81-26A2304B5DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCC9D9C-C64E-476C-93E4-CEF4F749BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>Plant</t>
   </si>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,10 +483,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="3" width="21.5703125" customWidth="1"/>
@@ -497,7 +497,7 @@
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -540,7 +540,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -559,7 +559,12 @@
       <c r="F3" s="2">
         <v>45976</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -574,7 +579,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
@@ -586,7 +591,7 @@
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -618,7 +623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -647,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -676,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -705,7 +710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -734,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -776,7 +781,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
@@ -785,7 +790,7 @@
     <col min="5" max="6" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -805,7 +810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>45962</v>
       </c>
@@ -825,7 +830,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>45963</v>
       </c>
@@ -845,7 +850,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>45964</v>
       </c>
@@ -865,7 +870,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>45965</v>
       </c>
@@ -885,7 +890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>45966</v>
       </c>
@@ -905,7 +910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>45967</v>
       </c>
@@ -925,7 +930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>45968</v>
       </c>
@@ -945,7 +950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>45969</v>
       </c>
@@ -965,7 +970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>45970</v>
       </c>
@@ -985,7 +990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>45971</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>45972</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>45973</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>45974</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>45975</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>45976</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>45977</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>45978</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>45979</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>45980</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>45981</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>45982</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>45983</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>45984</v>
       </c>
@@ -1265,7 +1270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>45985</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>45986</v>
       </c>
@@ -1305,7 +1310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>45987</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>45988</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>45989</v>
       </c>
@@ -1365,7 +1370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>45990</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>45991</v>
       </c>
@@ -1416,7 +1421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
@@ -1425,7 +1430,7 @@
     <col min="5" max="5" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1493,7 +1498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
@@ -1530,7 +1535,7 @@
     <col min="5" max="6" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
